--- a/demo.xlsx
+++ b/demo.xlsx
@@ -450,7 +450,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="2"/>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>0</f>
         <v>0</v>
       </c>
